--- a/backend/IndianExpress_Video.xlsx
+++ b/backend/IndianExpress_Video.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Heading</t>
   </si>
@@ -26,19 +26,71 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>India Sends Humanitarian Aid To Gaza Amid Ongoing Israel Hamas Conflict</t>
+  </si>
+  <si>
+    <t>Israel Hamas Conflict: India has extended a helping hand to the Palestinian city of Gaza, which has been enduring a siege by Israeli forces for two weeks following the outbreak of hostilities between Israel and the militant group Hamas. The Ministry of External Affairs announced via social media that an Indian Air Force C-17 flight has departed, carrying approximately 6.5 tonnes of medical aid and 32 tonnes of disaster relief supplies destined for the people of Palestine. The aid includes crucial life-saving medicines, surgical equipment, tents, sleeping bags, tarpaulins, sanitary utilities, water purification tablets, and other essential items to support those affected by the conflict in Gaza.</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/videos/news-video/india-sends-humanitarian-aid-to-gaza-amid-ongoing-israel-hamas-conflict/</t>
+  </si>
+  <si>
+    <t>Mizoram Election 2023: CM Zoramthanga Casts His Vote, Expresses Confidence In MNF's Majority</t>
+  </si>
+  <si>
+    <t>They hope in order to form the government it needs 21 They hope they will be able to get more than tha may be 25 and moreIt Will Not Be a Hung Assembly It Will Be a MinuteBJP alliance partner NDAAir in the state they don't have any alliance with BJP or any other partyAfroz BJP should you need the help of approaches they have not approached the they are only a partner of the NDAand industry support</t>
+  </si>
+  <si>
+    <t>Mizoram Chief Minister and MNF (Mizo National Front) President, Zoramthanga, exercised his voting right as polling booths opened in the state's elections. He cast his vote at the 19-Aizawl Venglai-I YMA Hall polling station, expressing optimism that the MNF would secure a comfortable majority and form the government. Zoramthanga emphasized that he did not anticipate a hung assembly and was confident in the MNF's electoral prospects, affirming that there was no alliance between the MNF and the BJP at the state level, although the NDA operates at the central level. These remarks come as Mizoram goes to the polls, with the CM's party vying for a decisive victory.</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/videos/news-video/mizoram-election-2023-cm-zoramthanga-casts-his-vote-expresses-confidence-in-mnfs-majority/</t>
+  </si>
+  <si>
+    <t>Rising Death Toll and Diplomatic Tensions Mark Day 25 of Israel-Hamas War</t>
+  </si>
+  <si>
+    <t>2.3 million This is strong coordinationPrime Prime Minister of IndiaConcept Paper The Head of That Agency Posted on Refugee Said in a MediumEmergency meeting accused is really a house of collective punishmentIF NOT IMPOSSIBLE FOR THE LARGEST UN AGENCY IN GHAZIABAD TO CONTINUE OPERATING IS REALLY PRIME MINISTERDismissThank you for joining us for this updated statement in this complex situation.</t>
+  </si>
+  <si>
+    <t>On the 25th day of the Israel-Hamas conflict, the death toll continues to rise, with over 8,300 Palestinians, including nearly 3,500 children, losing their lives. Kuwait has strongly condemned Israel's actions and called for a ceasefire. The UN agency for Palestinian refugees also urgently called for a humanitarian ceasefire, characterizing it as a matter of life and death for millions. Israeli Prime Minister Netanyahu has rejected calls for a ceasefire and pledged to continue the ground invasion. A hospital near Gaza City was damaged in an Israeli airstrike, and there are concerns that recent attacks on journalists in Lebanon were intentional. Israel reversed its stance on denying entry visas to UN officials. And, controversy surrounds a proposal to transfer Gaza's population to Egypt's Sinai Peninsula. The situation remains highly complex and ongoing, with significant humanitarian and geopolitical implications. Stay Tuned To Indian Express For More Updates: https://indianexpress.com/ Watch Out Our Weekly Shows: 🡆 Political Pulse - https://youtube.com/playlist?list=PLrDg7LoYgk9yWQFKrxgIIWgWV-Mbq2jwC 🡆 Express Explained In 60 Seconds - https://youtube.com/playlist?list=PLrDg7LoYgk9wf6MYiN9rR3zN3f-lWmfaS 🡆 Zero Hour with Derek O' Brien - https://youtube.com/playlist?list=PLrDg7LoYgk9w95L5sHxAhGVlNgsRFhMHq 🡆 Indian Express Explained - https://youtube.com/playlist?list=PLrDg7LoYgk9y8Wm50M57nutw5usWUkb-k 🡆 UPSC Essentials- https://www.youtube.com/watch?v=TuhtH8j4stw&amp;list=PLrDg7LoYgk9wBTnLuSQmbj1_6U1K6IOYI 🡆HarshTag India- https://www.youtube.com/watch?v=Fo8c1Nc7S8Q&amp;list=PLrDg7LoYgk9xInl3lu8-G0_Y_mopDdit5</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/videos/international-video/rising-death-toll-and-diplomatic-tensions-mark-day-25-of-israel-hamas-war/</t>
+  </si>
+  <si>
+    <t>Gaza Hospital Blast: What Happened? Claims &amp; Counter Claims | Israel News</t>
+  </si>
+  <si>
+    <t>I'm in Telugu in Israel and there has been an attack on a hospitalLast night an explosion took place in Gaza, which was a hospital for children patients.Will You Know the First Report Suggested It WasBut the is really forces Defense Forces have come out with a statement claiming that it wasThe rocket was fired in the you know from Gaza itself by the Palestine Islamic Jihad andAnd Itself Fell And And Cut And Was Dropped In On The Hospital Killing100 petrol from the palestine inside saying that is climbing tha it's growing up 800 to 900 people so this isThe Fog's War They Are Seeing Where Claims and Counter Claims Are Playing Out as President Joe Biden Is in Town andIn this meeting Prime Minister Every Prime Minister Benjamin Yahoo and will have to see how this tensionBetween Israel and Hamas the Place Out in the Next Few Days</t>
+  </si>
+  <si>
+    <t>Gaza Hospital Blast: The Indian Express' Diplomatic Editor Shubhajit Roy explains what unfolded after a deadly blast at a Gaza hospital complex left at least 500 dead. Israeli authorities claimed Hamas 'misfired' rocket which caused the blast. However, Palestinian authorities claim Israel was lying.</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/videos/explained-video/gaza-hospital-blast-what-happened-claims-counter-claims-israel-news/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,13 +110,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +435,66 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>